--- a/model_exports/labels/2.0_True_False_7_1.xlsx
+++ b/model_exports/labels/2.0_True_False_7_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,17 +460,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,76 +557,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,50 +635,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,24 +739,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,20 +804,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,24 +843,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -895,20 +895,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,24 +986,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,24 +1064,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,46 +1116,46 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,72 +1194,72 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,72 +1285,72 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,20 +1428,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,50 +1519,50 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,46 +1571,46 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,20 +1727,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,20 +1818,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,20 +1844,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,50 +1870,50 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,24 +1922,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,37 +1948,37 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,33 +1987,33 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,20 +2052,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,59 +2143,59 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,33 +2208,33 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,20 +2286,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,50 +2351,50 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,20 +2403,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,33 +2442,33 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,20 +2494,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2572,59 +2572,59 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,46 +2650,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,24 +2715,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,33 +2741,33 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,11 +2780,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,11 +2806,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,37 +2819,37 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,20 +2858,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,33 +2897,33 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,89 +2949,89 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3040,46 +3040,46 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,111 +3092,111 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3235,37 +3235,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,33 +3287,33 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,24 +3326,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,33 +3378,33 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,24 +3417,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,20 +3443,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,20 +3521,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,24 +3560,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,37 +3612,37 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,20 +3664,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,37 +3703,37 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,24 +3742,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,20 +3768,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,50 +3794,50 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,37 +3898,37 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3950,20 +3950,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,24 +4002,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,24 +4028,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -4054,20 +4054,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,50 +4106,50 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,59 +4236,59 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,72 +4301,72 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,24 +4418,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,24 +4509,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,11 +4548,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,24 +4587,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,11 +4626,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,102 +4678,102 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4821,20 +4821,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4860,76 +4860,76 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,46 +4938,46 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,20 +5081,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,24 +5107,24 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,20 +5159,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,33 +5237,33 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5289,24 +5289,24 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,37 +5354,37 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,59 +5406,59 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,24 +5471,24 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,37 +5497,37 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,24 +5536,24 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,20 +5575,20 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,24 +5640,24 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,20 +5705,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,11 +5744,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,50 +5770,50 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,20 +5874,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,37 +5926,37 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,33 +5965,33 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,33 +6030,33 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,46 +6121,46 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,50 +6199,50 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,46 +6251,46 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,24 +6303,24 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,11 +6355,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -6368,20 +6368,20 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,11 +6394,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,37 +6407,37 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -6459,20 +6459,20 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,33 +6485,33 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -6563,20 +6563,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,11 +6615,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,37 +6628,37 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,20 +6667,20 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,20 +6693,20 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,24 +6745,24 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -6771,59 +6771,59 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,33 +6836,33 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,33 +6875,33 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,24 +6927,24 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6953,37 +6953,37 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,46 +7018,46 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,24 +7070,24 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
         <v>1</v>
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -7148,11 +7148,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,20 +7174,20 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,20 +7213,20 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,76 +7239,76 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,11 +7330,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -7343,11 +7343,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
         <v>1</v>
@@ -7369,11 +7369,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -7382,24 +7382,24 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,50 +7421,50 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -7473,20 +7473,20 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,20 +7525,20 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,24 +7551,24 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -7577,46 +7577,46 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,59 +7629,59 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,11 +7694,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,11 +7720,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>0</v>
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -7746,11 +7746,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,102 +7772,102 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,46 +7876,46 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,33 +7941,33 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,20 +8019,20 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,11 +8045,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -8071,50 +8071,50 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,20 +8162,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,20 +8240,20 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,33 +8279,33 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,33 +8448,33 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,20 +8500,20 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,11 +8526,11 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,98 +8552,98 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B625" t="n">
         <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B627" t="n">
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B628" t="n">
         <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,33 +8656,33 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B633" t="n">
         <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,24 +8825,24 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,20 +8890,20 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B651" t="n">
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,33 +8929,33 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,33 +8981,33 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>0</v>
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,11 +9124,11 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -9137,11 +9137,11 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,37 +9150,37 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B672" t="n">
         <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,24 +9228,24 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,11 +9293,11 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,24 +9384,24 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,37 +9423,37 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,24 +9488,24 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -9514,11 +9514,11 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,11 +9540,11 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -9553,37 +9553,37 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,33 +9631,33 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,46 +9670,46 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,46 +9761,46 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,24 +9813,24 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>0</v>
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,24 +9852,24 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-940573035752386560</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
